--- a/public/Plantilla.xlsx
+++ b/public/Plantilla.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>calculadora</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Elimine esta fila ANTES de subir el archivo</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>pieza</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,13 +496,13 @@
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -527,14 +533,14 @@
       <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M1" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -568,14 +574,14 @@
       <c r="J2" s="1">
         <v>72</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="2">
         <v>43466</v>
       </c>
-      <c r="M2" s="1">
+      <c r="L2" s="1">
         <v>3000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>16</v>
